--- a/mathTransformed/HMPSTT_(2020-12-15)_12_4.xlsx
+++ b/mathTransformed/HMPSTT_(2020-12-15)_12_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,6 +436,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>

--- a/mathTransformed/HMPSTT_(2020-12-15)_12_4.xlsx
+++ b/mathTransformed/HMPSTT_(2020-12-15)_12_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
